--- a/Team-Data/2008-09/4-10-2008-09.xlsx
+++ b/Team-Data/2008-09/4-10-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
         <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.575</v>
+        <v>0.57</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J2" t="n">
         <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
@@ -696,13 +763,13 @@
         <v>20.1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O2" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="P2" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.738</v>
@@ -732,19 +799,19 @@
         <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC2" t="n">
         <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -774,16 +841,16 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>20</v>
@@ -795,13 +862,13 @@
         <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV2" t="n">
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -813,13 +880,13 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -866,28 +933,28 @@
         <v>37.5</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.396</v>
+        <v>0.392</v>
       </c>
       <c r="O3" t="n">
         <v>19.6</v>
       </c>
       <c r="P3" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -896,7 +963,7 @@
         <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
         <v>22.7</v>
@@ -905,28 +972,28 @@
         <v>15.7</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
         <v>8.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -953,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
@@ -962,10 +1029,10 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -980,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW3" t="n">
         <v>7</v>
@@ -995,10 +1062,10 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -1030,43 +1097,43 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
         <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>0.443</v>
+        <v>0.449</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L4" t="n">
         <v>6.1</v>
       </c>
       <c r="M4" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.367</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
         <v>17.6</v>
       </c>
       <c r="P4" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q4" t="n">
         <v>0.742</v>
@@ -1081,13 +1148,13 @@
         <v>39.7</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
         <v>4.8</v>
@@ -1096,19 +1163,19 @@
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,13 +1196,13 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>22</v>
       </c>
       <c r="AM4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN4" t="n">
         <v>14</v>
@@ -1153,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1180,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="BB4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.487</v>
+        <v>0.494</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,31 +1309,31 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1275,34 +1342,34 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
         <v>102.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>23</v>
@@ -1320,10 +1387,10 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1341,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1365,7 +1432,7 @@
         <v>8</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -1397,58 +1464,58 @@
         <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0.821</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392</v>
+        <v>0.388</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.4</v>
+        <v>24.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1496,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1505,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>19</v>
@@ -1520,28 +1587,28 @@
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV6" t="n">
         <v>4</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
         <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.608</v>
+        <v>0.603</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
@@ -1597,40 +1664,40 @@
         <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O7" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S7" t="n">
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U7" t="n">
         <v>21.7</v>
       </c>
       <c r="V7" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
         <v>7.3</v>
@@ -1648,22 +1715,22 @@
         <v>20</v>
       </c>
       <c r="AB7" t="n">
-        <v>102</v>
+        <v>102.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>14</v>
@@ -1684,13 +1751,13 @@
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -1699,22 +1766,22 @@
         <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>5</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>7</v>
@@ -1723,13 +1790,13 @@
         <v>5</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
@@ -1869,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
         <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>0.494</v>
+        <v>0.487</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,10 +2025,10 @@
         <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
@@ -1976,13 +2043,13 @@
         <v>16.8</v>
       </c>
       <c r="P9" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R9" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
         <v>29.8</v>
@@ -1994,7 +2061,7 @@
         <v>20.7</v>
       </c>
       <c r="V9" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="W9" t="n">
         <v>6.1</v>
@@ -2006,31 +2073,31 @@
         <v>4.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2048,10 +2115,10 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2063,7 +2130,7 @@
         <v>10</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
         <v>16</v>
@@ -2081,7 +2148,7 @@
         <v>18</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
         <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2143,7 +2210,7 @@
         <v>86.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L10" t="n">
         <v>6.8</v>
@@ -2152,37 +2219,37 @@
         <v>18.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="P10" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
         <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
       </c>
       <c r="X10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y10" t="n">
         <v>5.1</v>
@@ -2200,7 +2267,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2221,19 +2288,19 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
@@ -2245,16 +2312,16 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU10" t="n">
         <v>15</v>
       </c>
-      <c r="AT10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>14</v>
-      </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -2304,61 +2371,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="n">
         <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J11" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L11" t="n">
         <v>7.7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N11" t="n">
         <v>0.378</v>
       </c>
       <c r="O11" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P11" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q11" t="n">
         <v>0.803</v>
       </c>
       <c r="R11" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T11" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U11" t="n">
         <v>20.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
@@ -2370,31 +2437,31 @@
         <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>4</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>24</v>
@@ -2415,7 +2482,7 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2433,16 +2500,16 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
         <v>24</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" t="n">
         <v>34</v>
       </c>
       <c r="F12" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" t="n">
-        <v>0.43</v>
+        <v>0.436</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J12" t="n">
         <v>86.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L12" t="n">
         <v>7.9</v>
@@ -2516,16 +2583,16 @@
         <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P12" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA12" t="n">
         <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.9</v>
+        <v>104.7</v>
       </c>
       <c r="AC12" t="n">
         <v>-1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2597,7 +2664,7 @@
         <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP12" t="n">
         <v>24</v>
@@ -2615,13 +2682,13 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
         <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>0.241</v>
+        <v>0.231</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J13" t="n">
         <v>81.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L13" t="n">
         <v>6.6</v>
@@ -2704,22 +2771,22 @@
         <v>16.8</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R13" t="n">
         <v>11</v>
       </c>
       <c r="S13" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T13" t="n">
-        <v>40</v>
+        <v>39.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
         <v>14.8</v>
@@ -2728,25 +2795,25 @@
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y13" t="n">
         <v>5.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA13" t="n">
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.1</v>
+        <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2767,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="AK13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
@@ -2779,31 +2846,31 @@
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="n">
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
         <v>22</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
@@ -2812,7 +2879,7 @@
         <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA13" t="n">
         <v>27</v>
@@ -2821,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -2853,13 +2920,13 @@
         <v>79</v>
       </c>
       <c r="E14" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.785</v>
+        <v>0.797</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.473</v>
@@ -2877,10 +2944,10 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O14" t="n">
         <v>19.7</v>
@@ -2889,34 +2956,34 @@
         <v>25.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
         <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
         <v>22.2</v>
@@ -2925,13 +2992,13 @@
         <v>107</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2955,10 +3022,10 @@
         <v>16</v>
       </c>
       <c r="AM14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
         <v>11</v>
@@ -2967,13 +3034,13 @@
         <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2988,16 +3055,16 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -3032,67 +3099,67 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
         <v>56</v>
       </c>
       <c r="G15" t="n">
-        <v>0.291</v>
+        <v>0.282</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J15" t="n">
-        <v>77.09999999999999</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
         <v>4.8</v>
       </c>
       <c r="M15" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O15" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P15" t="n">
         <v>25.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S15" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T15" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U15" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.2</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y15" t="n">
         <v>5.4</v>
@@ -3101,16 +3168,16 @@
         <v>21.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.4</v>
+        <v>-5.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3134,22 +3201,22 @@
         <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>23</v>
@@ -3167,10 +3234,10 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
         <v>26</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
         <v>41</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="n">
-        <v>0.519</v>
+        <v>0.526</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
@@ -3232,7 +3299,7 @@
         <v>36.9</v>
       </c>
       <c r="J16" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K16" t="n">
         <v>0.456</v>
@@ -3253,7 +3320,7 @@
         <v>23</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R16" t="n">
         <v>10</v>
@@ -3268,7 +3335,7 @@
         <v>20.4</v>
       </c>
       <c r="V16" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W16" t="n">
         <v>8.1</v>
@@ -3289,10 +3356,10 @@
         <v>98.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3304,16 +3371,16 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3331,7 +3398,7 @@
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3361,10 +3428,10 @@
         <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G17" t="n">
-        <v>0.41</v>
+        <v>0.405</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,40 +3484,40 @@
         <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L17" t="n">
         <v>6.2</v>
       </c>
       <c r="M17" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="N17" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O17" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T17" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U17" t="n">
         <v>21.7</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>7.4</v>
@@ -3465,31 +3532,31 @@
         <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3504,31 +3571,31 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT17" t="n">
         <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
@@ -3537,7 +3604,7 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,22 +3735,22 @@
         <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN18" t="n">
         <v>24</v>
@@ -3695,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3710,7 +3777,7 @@
         <v>17</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
         <v>32</v>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3778,10 +3845,10 @@
         <v>35.8</v>
       </c>
       <c r="J19" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L19" t="n">
         <v>7.9</v>
@@ -3793,13 +3860,13 @@
         <v>0.374</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P19" t="n">
         <v>24.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
         <v>10.3</v>
@@ -3808,13 +3875,13 @@
         <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>39.7</v>
+        <v>39.9</v>
       </c>
       <c r="U19" t="n">
         <v>20</v>
       </c>
       <c r="V19" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="W19" t="n">
         <v>6.9</v>
@@ -3832,25 +3899,25 @@
         <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC19" t="n">
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3859,22 +3926,22 @@
         <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3886,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3895,19 +3962,19 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
         <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>18</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
         <v>48</v>
       </c>
       <c r="F20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" t="n">
-        <v>0.608</v>
+        <v>0.615</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3960,10 +4027,10 @@
         <v>35.5</v>
       </c>
       <c r="J20" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
@@ -3975,13 +4042,13 @@
         <v>0.365</v>
       </c>
       <c r="O20" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P20" t="n">
         <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>9.9</v>
@@ -3993,19 +4060,19 @@
         <v>39.9</v>
       </c>
       <c r="U20" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="V20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
         <v>4.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.4</v>
@@ -4017,10 +4084,10 @@
         <v>96.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>9</v>
@@ -4047,16 +4114,16 @@
         <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO20" t="n">
         <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4068,16 +4135,16 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV20" t="n">
         <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4089,13 +4156,13 @@
         <v>11</v>
       </c>
       <c r="BA20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" t="n">
         <v>49</v>
       </c>
       <c r="G21" t="n">
-        <v>0.388</v>
+        <v>0.38</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,7 +4209,7 @@
         <v>38.5</v>
       </c>
       <c r="J21" t="n">
-        <v>86.5</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.445</v>
@@ -4151,7 +4218,7 @@
         <v>10.1</v>
       </c>
       <c r="M21" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="N21" t="n">
         <v>0.362</v>
@@ -4166,16 +4233,16 @@
         <v>0.784</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T21" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
         <v>14.5</v>
@@ -4199,22 +4266,22 @@
         <v>105.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4232,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP21" t="n">
         <v>22</v>
@@ -4250,16 +4317,16 @@
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW21" t="n">
         <v>11</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>12</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4268,7 +4335,7 @@
         <v>22</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
         <v>57</v>
       </c>
       <c r="G22" t="n">
-        <v>0.278</v>
+        <v>0.269</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4333,34 +4400,34 @@
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R22" t="n">
         <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T22" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W22" t="n">
         <v>7.3</v>
@@ -4369,7 +4436,7 @@
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
         <v>20.3</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4417,10 +4484,10 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4429,22 +4496,22 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY22" t="n">
         <v>17</v>
@@ -4456,7 +4523,7 @@
         <v>20</v>
       </c>
       <c r="BB22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" t="n">
         <v>58</v>
       </c>
       <c r="F23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.734</v>
+        <v>0.744</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4518,10 +4585,10 @@
         <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.382</v>
+        <v>0.384</v>
       </c>
       <c r="O23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P23" t="n">
         <v>27.5</v>
@@ -4530,7 +4597,7 @@
         <v>0.718</v>
       </c>
       <c r="R23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S23" t="n">
         <v>33.4</v>
@@ -4539,7 +4606,7 @@
         <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V23" t="n">
         <v>14.1</v>
@@ -4563,10 +4630,10 @@
         <v>101.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4581,13 +4648,13 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="n">
-        <v>0.506</v>
+        <v>0.513</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J24" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.459</v>
@@ -4700,13 +4767,13 @@
         <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.318</v>
+        <v>0.319</v>
       </c>
       <c r="O24" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P24" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q24" t="n">
         <v>0.743</v>
@@ -4715,19 +4782,19 @@
         <v>12.6</v>
       </c>
       <c r="S24" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V24" t="n">
         <v>14.1</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X24" t="n">
         <v>5.1</v>
@@ -4742,13 +4809,13 @@
         <v>21.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4799,10 +4866,10 @@
         <v>17</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" t="n">
         <v>43</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="n">
-        <v>0.544</v>
+        <v>0.551</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="J25" t="n">
         <v>81.5</v>
@@ -4876,31 +4943,31 @@
         <v>0.505</v>
       </c>
       <c r="L25" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="N25" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O25" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R25" t="n">
         <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
         <v>23.2</v>
@@ -4915,22 +4982,22 @@
         <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
         <v>22.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>109.2</v>
+        <v>109.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,25 +5009,25 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
         <v>5</v>
@@ -4984,13 +5051,13 @@
         <v>2</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW25" t="n">
         <v>18</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -5037,13 +5104,13 @@
         <v>78</v>
       </c>
       <c r="E26" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.654</v>
+        <v>0.641</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5055,7 +5122,7 @@
         <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5064,13 +5131,13 @@
         <v>18.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.5</v>
       </c>
       <c r="P26" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
         <v>0.767</v>
@@ -5088,7 +5155,7 @@
         <v>20.3</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5097,31 +5164,31 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
@@ -5145,13 +5212,13 @@
         <v>7</v>
       </c>
       <c r="AO26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP26" t="n">
         <v>17</v>
       </c>
-      <c r="AP26" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
@@ -5178,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" t="n">
-        <v>0.203</v>
+        <v>0.205</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
-        <v>81.59999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L27" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M27" t="n">
         <v>19.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O27" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P27" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.799</v>
+        <v>0.801</v>
       </c>
       <c r="R27" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="S27" t="n">
         <v>28.8</v>
       </c>
       <c r="T27" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X27" t="n">
         <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA27" t="n">
         <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.9</v>
+        <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,13 +5376,13 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
         <v>10</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5339,13 +5406,13 @@
         <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT27" t="n">
         <v>29</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -5363,13 +5430,13 @@
         <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F28" t="n">
         <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>0.646</v>
+        <v>0.641</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
@@ -5416,7 +5483,7 @@
         <v>37.1</v>
       </c>
       <c r="J28" t="n">
-        <v>79.5</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.466</v>
@@ -5428,28 +5495,28 @@
         <v>19.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O28" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="P28" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
         <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V28" t="n">
         <v>11.7</v>
@@ -5464,34 +5531,34 @@
         <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC28" t="n">
         <v>3.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>7</v>
       </c>
       <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
         <v>7</v>
       </c>
-      <c r="AG28" t="n">
-        <v>8</v>
-      </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>21</v>
@@ -5527,7 +5594,7 @@
         <v>19</v>
       </c>
       <c r="AU28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>0.38</v>
+        <v>0.385</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,28 +5665,28 @@
         <v>37.1</v>
       </c>
       <c r="J29" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K29" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L29" t="n">
         <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N29" t="n">
         <v>0.374</v>
       </c>
       <c r="O29" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
         <v>22.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.825</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
         <v>9.5</v>
@@ -5643,13 +5710,13 @@
         <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z29" t="n">
         <v>19.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB29" t="n">
         <v>98.8</v>
@@ -5658,25 +5725,25 @@
         <v>-3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>14</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>15</v>
@@ -5688,13 +5755,13 @@
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5721,7 +5788,7 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>3</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="n">
         <v>47</v>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>0.595</v>
+        <v>0.603</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5783,7 +5850,7 @@
         <v>80.8</v>
       </c>
       <c r="K30" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5801,7 +5868,7 @@
         <v>28.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R30" t="n">
         <v>11.4</v>
@@ -5822,7 +5889,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y30" t="n">
         <v>5.1</v>
@@ -5837,22 +5904,22 @@
         <v>103.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5864,7 +5931,7 @@
         <v>3</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5900,10 +5967,10 @@
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
@@ -5944,52 +6011,52 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="n">
         <v>61</v>
       </c>
       <c r="G31" t="n">
-        <v>0.238</v>
+        <v>0.228</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L31" t="n">
         <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="N31" t="n">
         <v>0.331</v>
       </c>
       <c r="O31" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P31" t="n">
         <v>23.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R31" t="n">
         <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="T31" t="n">
         <v>40</v>
@@ -6004,7 +6071,7 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
         <v>5.3</v>
@@ -6019,10 +6086,10 @@
         <v>95.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-7.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6037,16 +6104,16 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>25</v>
@@ -6055,13 +6122,13 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
       </c>
       <c r="AQ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6073,22 +6140,22 @@
         <v>23</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
         <v>23</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-10-2008-09</t>
+          <t>2009-04-10</t>
         </is>
       </c>
     </row>
